--- a/SPA/piu-monitoramento/data_src/monitoramento.xlsx
+++ b/SPA/piu-monitoramento/data_src/monitoramento.xlsx
@@ -4,16 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="15" windowWidth="23790" windowHeight="10020"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="26835" windowHeight="12090"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan2" sheetId="1" r:id="rId1"/>
+    <sheet name="COMUNICACAO" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="125725" iterateCount="117"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+  <si>
+    <t>aberta</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -65,683 +76,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1083,6 +425,243 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41415</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364436</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Menu_inicial" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41415" y="33131"/>
+          <a:ext cx="627821" cy="154885"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="88900" h="88900"/>
+          <a:bevelB w="88900" h="88900"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>Menu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" baseline="0"/>
+            <a:t> inicial</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1308653</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!SalvarBaseExterno" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="668821" y="16564"/>
+          <a:ext cx="1657" cy="172694"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F4750C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="88900" h="88900"/>
+          <a:bevelB w="88900" h="88900"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>Exportar xls</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>256760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1283804</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>455543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!writeToCSVfile" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo de cantos arredondados 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="668820" y="190085"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F4750C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="88900" h="88900"/>
+          <a:bevelB w="88900" h="88900"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1"/>
+            <a:t>Exportar csv</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1578,12 +1157,21 @@
           <cell r="D6" t="str">
             <v>P</v>
           </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
           <cell r="F6" t="str">
             <v>P</v>
           </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
           <cell r="H6" t="str">
             <v>P</v>
           </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
           <cell r="J6" t="str">
             <v>P</v>
           </cell>
@@ -1593,24 +1181,57 @@
           <cell r="L6" t="str">
             <v>P</v>
           </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6">
+            <v>0</v>
+          </cell>
           <cell r="O6" t="str">
             <v>P</v>
           </cell>
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6">
+            <v>0</v>
+          </cell>
           <cell r="S6" t="str">
             <v>P</v>
           </cell>
           <cell r="T6" t="str">
             <v>P</v>
           </cell>
+          <cell r="U6">
+            <v>0</v>
+          </cell>
+          <cell r="V6">
+            <v>0</v>
+          </cell>
           <cell r="W6" t="str">
             <v>P</v>
           </cell>
           <cell r="X6" t="str">
             <v>P</v>
           </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+          <cell r="AA6">
+            <v>0</v>
+          </cell>
           <cell r="AB6" t="str">
             <v>P</v>
           </cell>
+          <cell r="AC6">
+            <v>0</v>
+          </cell>
           <cell r="AD6" t="str">
             <v>P</v>
           </cell>
@@ -1620,6 +1241,15 @@
           <cell r="AF6" t="str">
             <v>P</v>
           </cell>
+          <cell r="AG6">
+            <v>0</v>
+          </cell>
+          <cell r="AH6">
+            <v>0</v>
+          </cell>
+          <cell r="AI6">
+            <v>0</v>
+          </cell>
           <cell r="AJ6" t="str">
             <v>P</v>
           </cell>
@@ -1629,9 +1259,18 @@
           <cell r="AL6" t="str">
             <v>P</v>
           </cell>
+          <cell r="AM6">
+            <v>0</v>
+          </cell>
           <cell r="AN6" t="str">
             <v>P</v>
           </cell>
+          <cell r="AO6">
+            <v>0</v>
+          </cell>
+          <cell r="AP6">
+            <v>0</v>
+          </cell>
           <cell r="AQ6" t="str">
             <v>P</v>
           </cell>
@@ -1641,12 +1280,39 @@
           <cell r="AS6" t="str">
             <v>P</v>
           </cell>
+          <cell r="AT6">
+            <v>0</v>
+          </cell>
+          <cell r="AU6">
+            <v>0</v>
+          </cell>
+          <cell r="AV6">
+            <v>0</v>
+          </cell>
+          <cell r="AW6">
+            <v>0</v>
+          </cell>
           <cell r="AX6" t="str">
             <v>P</v>
           </cell>
+          <cell r="AY6">
+            <v>0</v>
+          </cell>
+          <cell r="AZ6">
+            <v>0</v>
+          </cell>
+          <cell r="BA6">
+            <v>0</v>
+          </cell>
+          <cell r="BB6">
+            <v>0</v>
+          </cell>
           <cell r="BC6" t="str">
             <v>P</v>
           </cell>
+          <cell r="BD6">
+            <v>0</v>
+          </cell>
           <cell r="BE6" t="str">
             <v>P</v>
           </cell>
@@ -1659,12 +1325,30 @@
           <cell r="BH6" t="str">
             <v>P</v>
           </cell>
+          <cell r="BI6">
+            <v>0</v>
+          </cell>
           <cell r="BJ6" t="str">
             <v>P</v>
           </cell>
+          <cell r="BK6">
+            <v>0</v>
+          </cell>
           <cell r="BL6" t="str">
             <v>P</v>
           </cell>
+          <cell r="BM6">
+            <v>0</v>
+          </cell>
+          <cell r="BN6">
+            <v>0</v>
+          </cell>
+          <cell r="BO6">
+            <v>0</v>
+          </cell>
+          <cell r="BP6">
+            <v>0</v>
+          </cell>
           <cell r="BQ6" t="str">
             <v>P</v>
           </cell>
@@ -1677,6 +1361,30 @@
           <cell r="BT6" t="str">
             <v>P</v>
           </cell>
+          <cell r="BU6">
+            <v>0</v>
+          </cell>
+          <cell r="BV6">
+            <v>0</v>
+          </cell>
+          <cell r="BW6">
+            <v>0</v>
+          </cell>
+          <cell r="BX6">
+            <v>0</v>
+          </cell>
+          <cell r="BY6">
+            <v>0</v>
+          </cell>
+          <cell r="BZ6">
+            <v>0</v>
+          </cell>
+          <cell r="CA6">
+            <v>0</v>
+          </cell>
+          <cell r="CB6">
+            <v>0</v>
+          </cell>
           <cell r="CC6" t="str">
             <v>P</v>
           </cell>
@@ -1686,6 +1394,12 @@
           <cell r="CE6" t="str">
             <v>P</v>
           </cell>
+          <cell r="CF6">
+            <v>0</v>
+          </cell>
+          <cell r="CG6">
+            <v>0</v>
+          </cell>
           <cell r="CH6" t="str">
             <v>P</v>
           </cell>
@@ -1695,9 +1409,33 @@
           <cell r="CJ6" t="str">
             <v>P</v>
           </cell>
+          <cell r="CK6">
+            <v>0</v>
+          </cell>
+          <cell r="CL6">
+            <v>0</v>
+          </cell>
+          <cell r="CM6">
+            <v>0</v>
+          </cell>
+          <cell r="CN6">
+            <v>0</v>
+          </cell>
+          <cell r="CO6">
+            <v>0</v>
+          </cell>
           <cell r="CP6" t="str">
             <v>P</v>
           </cell>
+          <cell r="CQ6">
+            <v>0</v>
+          </cell>
+          <cell r="CR6">
+            <v>0</v>
+          </cell>
+          <cell r="CS6">
+            <v>0</v>
+          </cell>
           <cell r="CT6" t="str">
             <v>P</v>
           </cell>
@@ -1707,21 +1445,60 @@
           <cell r="CV6" t="str">
             <v>P</v>
           </cell>
+          <cell r="CW6">
+            <v>0</v>
+          </cell>
+          <cell r="CX6">
+            <v>0</v>
+          </cell>
           <cell r="CY6" t="str">
             <v>P</v>
           </cell>
           <cell r="CZ6" t="str">
             <v>P</v>
           </cell>
+          <cell r="DA6">
+            <v>0</v>
+          </cell>
+          <cell r="DB6">
+            <v>0</v>
+          </cell>
+          <cell r="DC6">
+            <v>0</v>
+          </cell>
+          <cell r="DD6">
+            <v>0</v>
+          </cell>
+          <cell r="DE6">
+            <v>0</v>
+          </cell>
+          <cell r="DF6">
+            <v>0</v>
+          </cell>
           <cell r="DG6" t="str">
             <v>P</v>
           </cell>
           <cell r="DH6" t="str">
             <v>P</v>
           </cell>
+          <cell r="DI6">
+            <v>0</v>
+          </cell>
+          <cell r="DJ6">
+            <v>0</v>
+          </cell>
           <cell r="DK6" t="str">
             <v>P</v>
           </cell>
+          <cell r="DL6">
+            <v>0</v>
+          </cell>
+          <cell r="DM6">
+            <v>0</v>
+          </cell>
+          <cell r="DN6">
+            <v>0</v>
+          </cell>
           <cell r="DO6" t="str">
             <v>P</v>
           </cell>
@@ -1764,6 +1541,12 @@
           <cell r="EB6" t="str">
             <v>P</v>
           </cell>
+          <cell r="EC6">
+            <v>0</v>
+          </cell>
+          <cell r="ED6">
+            <v>0</v>
+          </cell>
           <cell r="EE6" t="str">
             <v>P</v>
           </cell>
@@ -1776,6 +1559,9 @@
           <cell r="EH6" t="str">
             <v>P</v>
           </cell>
+          <cell r="EI6">
+            <v>0</v>
+          </cell>
           <cell r="EJ6" t="str">
             <v>P</v>
           </cell>
@@ -1791,14 +1577,32 @@
           <cell r="EN6" t="str">
             <v>P</v>
           </cell>
+          <cell r="EO6">
+            <v>0</v>
+          </cell>
           <cell r="EP6" t="str">
             <v>P</v>
           </cell>
+          <cell r="EQ6">
+            <v>0</v>
+          </cell>
           <cell r="ER6" t="str">
             <v>P</v>
           </cell>
+          <cell r="ES6">
+            <v>0</v>
+          </cell>
           <cell r="ET6" t="str">
             <v>P</v>
+          </cell>
+          <cell r="EU6">
+            <v>0</v>
+          </cell>
+          <cell r="EV6">
+            <v>0</v>
+          </cell>
+          <cell r="EW6">
+            <v>0</v>
           </cell>
           <cell r="EX6" t="str">
             <v>P</v>
@@ -3850,6 +3654,9 @@
           <cell r="BG12" t="str">
             <v>DDE-SPURB</v>
           </cell>
+          <cell r="BH12" t="str">
+            <v>Pedido de Prorrogação de Prazo (Conselho Gestor de SMUL)</v>
+          </cell>
           <cell r="BI12" t="str">
             <v>Finalizada</v>
           </cell>
@@ -4705,9 +4512,6 @@
           <cell r="AI14" t="str">
             <v xml:space="preserve"> Internet</v>
           </cell>
-          <cell r="AJ14" t="str">
-            <v>encerrada</v>
-          </cell>
           <cell r="AK14">
             <v>43266</v>
           </cell>
@@ -4717,20 +4521,20 @@
           <cell r="AM14" t="str">
             <v>DDE/SPURB</v>
           </cell>
-          <cell r="AN14" t="str">
-            <v>-</v>
+          <cell r="AN14">
+            <v>13</v>
           </cell>
           <cell r="AO14" t="str">
-            <v>-</v>
+            <v>SIM</v>
           </cell>
           <cell r="AP14" t="str">
-            <v>-</v>
+            <v>Aprovado</v>
           </cell>
           <cell r="AQ14" t="str">
             <v>-</v>
           </cell>
-          <cell r="AR14" t="str">
-            <v>-</v>
+          <cell r="AR14">
+            <v>43300</v>
           </cell>
           <cell r="AS14" t="str">
             <v>-</v>
@@ -4771,20 +4575,20 @@
           <cell r="BE14" t="str">
             <v>-</v>
           </cell>
-          <cell r="BF14" t="str">
-            <v>-</v>
+          <cell r="BF14">
+            <v>43304</v>
           </cell>
           <cell r="BG14" t="str">
-            <v>-</v>
+            <v>DDE-SPURB</v>
           </cell>
           <cell r="BH14" t="str">
             <v>-</v>
           </cell>
           <cell r="BI14" t="str">
-            <v>-</v>
+            <v>Em elaboração</v>
           </cell>
           <cell r="BJ14" t="str">
-            <v>-</v>
+            <v>SMDP (SPP)</v>
           </cell>
           <cell r="BK14" t="str">
             <v>-</v>
@@ -4796,19 +4600,19 @@
             <v>-</v>
           </cell>
           <cell r="BN14" t="str">
-            <v>-</v>
+            <v>Minuta</v>
           </cell>
           <cell r="BO14" t="str">
-            <v>-</v>
+            <v>Em elaboração</v>
           </cell>
           <cell r="BP14" t="str">
             <v>-</v>
           </cell>
-          <cell r="BQ14" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="BR14" t="str">
-            <v>-</v>
+          <cell r="BQ14">
+            <v>43307</v>
+          </cell>
+          <cell r="BR14">
+            <v>43311</v>
           </cell>
           <cell r="BS14" t="str">
             <v>-</v>
@@ -4841,10 +4645,10 @@
             <v>-</v>
           </cell>
           <cell r="CC14" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="CD14" t="str">
-            <v>-</v>
+            <v>Aberta</v>
+          </cell>
+          <cell r="CD14">
+            <v>43311</v>
           </cell>
           <cell r="CE14" t="str">
             <v>-</v>
@@ -4853,12 +4657,6 @@
             <v>-</v>
           </cell>
           <cell r="CG14" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="CH14" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="CI14" t="str">
             <v>-</v>
           </cell>
           <cell r="CJ14" t="str">
@@ -5061,7 +4859,7 @@
             <v>-</v>
           </cell>
           <cell r="EX14">
-            <v>2</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="15">
@@ -6391,6 +6189,9 @@
 O Projeto pode estar associado à  proposta de implantação do Parque Augusta, em virtude de uma proposta de permuta de terrenos entre os proprietários da área onde se deseja implantar o futuro parque e a Prefeitura, que cederia como contrapartida uma porção da área municipal situada nesta Zona de Ocupação Especial.
 Outro objetivo do PIU é resgatar a Praça Victor Civita como equipamento público, recuperando suas instalações e melhorando sua integração com o entorno, potencializando sua apropriação pelos moradores e trabalhadores locais.</v>
           </cell>
+          <cell r="EA17">
+            <v>0</v>
+          </cell>
           <cell r="EB17" t="str">
             <v>MEM e ZOE</v>
           </cell>
@@ -6968,6 +6769,9 @@
           <cell r="N19">
             <v>2018</v>
           </cell>
+          <cell r="O19">
+            <v>0</v>
+          </cell>
           <cell r="P19" t="str">
             <v>NA</v>
           </cell>
@@ -8259,6 +8063,9 @@
           <cell r="EF21" t="str">
             <v>-</v>
           </cell>
+          <cell r="EG21">
+            <v>0</v>
+          </cell>
           <cell r="EH21" t="str">
             <v>-</v>
           </cell>
@@ -8788,6 +8595,9 @@
           <cell r="D23" t="str">
             <v>Pública</v>
           </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
           <cell r="F23" t="str">
             <v>PMSP - SMUL</v>
           </cell>
@@ -9165,11 +8975,38 @@
 O projeto propõe, além de um programa de intervenções (melhoramentos viários, qualificação da drenagem e do transporte, promoção de habitação e equipamentos, criação de novos parques e resgate do patrimônio histórico), estratégias de financiamento da transformação e incentivos aos espaços produtivos da indústria, da logística, da economia criativa e do comércio e serviços. O projeto de lei encontra-se em tramitação na Câmara Municipal de São Paulo.
 Observação: O PIU Bairros Tamanduateí foi elborado antes da aprovação do decreto que regulamenta o procedimento de aprovação dos PIUs, por este motivo não segue sequencialmente todas as etapas.</v>
           </cell>
+          <cell r="EA23">
+            <v>0</v>
+          </cell>
           <cell r="EB23" t="str">
             <v>MEM - Setor Orla Fluvial</v>
           </cell>
+          <cell r="EC23">
+            <v>0</v>
+          </cell>
+          <cell r="ED23">
+            <v>0</v>
+          </cell>
+          <cell r="EE23">
+            <v>0</v>
+          </cell>
+          <cell r="EF23">
+            <v>0</v>
+          </cell>
           <cell r="EG23">
             <v>1640.66</v>
+          </cell>
+          <cell r="EH23">
+            <v>0</v>
+          </cell>
+          <cell r="EI23">
+            <v>0</v>
+          </cell>
+          <cell r="EJ23">
+            <v>0</v>
+          </cell>
+          <cell r="EK23">
+            <v>0</v>
           </cell>
           <cell r="EL23" t="str">
             <v>Operação Urbana</v>
@@ -9389,6 +9226,9 @@
           <cell r="BG24" t="str">
             <v>DDE-SPURB</v>
           </cell>
+          <cell r="BH24">
+            <v>0</v>
+          </cell>
           <cell r="BI24" t="str">
             <v>Finalizada</v>
           </cell>
@@ -9853,6 +9693,9 @@
           <cell r="BG25" t="str">
             <v>DDE-SPURB</v>
           </cell>
+          <cell r="BH25">
+            <v>0</v>
+          </cell>
           <cell r="BI25" t="str">
             <v>Finalizada</v>
           </cell>
@@ -10316,6 +10159,9 @@
           </cell>
           <cell r="BG26" t="str">
             <v>DDE-SPURB</v>
+          </cell>
+          <cell r="BH26">
+            <v>0</v>
           </cell>
           <cell r="BI26" t="str">
             <v>Finalizada</v>
@@ -10907,38 +10753,47 @@
   <dimension ref="A1:FA21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BH10" sqref="BH10"/>
+      <selection pane="bottomRight" activeCell="CV8" sqref="CV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
     <col min="10" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" customWidth="1"/>
     <col min="23" max="23" width="10.5703125" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
     <col min="35" max="37" width="11.7109375" customWidth="1"/>
+    <col min="38" max="38" width="13.85546875" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="12.5703125" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" customWidth="1"/>
     <col min="58" max="58" width="14.7109375" customWidth="1"/>
-    <col min="60" max="60" width="38.42578125" customWidth="1"/>
+    <col min="69" max="69" width="14.85546875" customWidth="1"/>
+    <col min="70" max="70" width="15.140625" customWidth="1"/>
     <col min="81" max="83" width="11.28515625" customWidth="1"/>
+    <col min="86" max="86" width="14.140625" customWidth="1"/>
+    <col min="87" max="87" width="16.28515625" customWidth="1"/>
+    <col min="88" max="88" width="9.140625" customWidth="1"/>
     <col min="108" max="118" width="10.140625" customWidth="1"/>
     <col min="122" max="122" width="21.42578125" customWidth="1"/>
     <col min="125" max="125" width="14.140625" customWidth="1"/>
-    <col min="130" max="130" width="5" customWidth="1"/>
     <col min="141" max="141" width="6" bestFit="1" customWidth="1"/>
     <col min="154" max="154" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:157" s="2" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:157" s="2" customFormat="1" ht="170.25" customHeight="1">
       <c r="A1" s="3" t="str">
         <f>IF([1]BD!A$6="P",[1]BD!A1,"")</f>
         <v>ID_rev</v>
@@ -14277,6 +14132,10 @@
         <f>CLEAN(IF([1]BD!BG$6="P",[1]BD!BG12,""))</f>
         <v>DDE-SPURB</v>
       </c>
+      <c r="BH6" t="str">
+        <f>CLEAN(IF([1]BD!BH$6="P",[1]BD!BH12,""))</f>
+        <v>Pedido de Prorrogação de Prazo (Conselho Gestor de SMUL)</v>
+      </c>
       <c r="BI6" t="str">
         <f>CLEAN(IF([1]BD!BI$6="P",[1]BD!BI12,""))</f>
         <v/>
@@ -15413,9 +15272,8 @@
         <f>CLEAN(IF([1]BD!AI$6="P",[1]BD!AI14,""))</f>
         <v/>
       </c>
-      <c r="AJ8" t="str">
-        <f>CLEAN(IF([1]BD!AJ$6="P",[1]BD!AJ14,""))</f>
-        <v>encerrada</v>
+      <c r="AJ8" t="s">
+        <v>0</v>
       </c>
       <c r="AK8" t="str">
         <f>CLEAN(IF([1]BD!AK$6="P",[1]BD!AK14,""))</f>
@@ -15431,7 +15289,7 @@
       </c>
       <c r="AN8" t="str">
         <f>CLEAN(IF([1]BD!AN$6="P",[1]BD!AN14,""))</f>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="str">
         <f>CLEAN(IF([1]BD!AO$6="P",[1]BD!AO14,""))</f>
@@ -15447,7 +15305,7 @@
       </c>
       <c r="AR8" t="str">
         <f>CLEAN(IF([1]BD!AR$6="P",[1]BD!AR14,""))</f>
-        <v>-</v>
+        <v>43300</v>
       </c>
       <c r="AS8" t="str">
         <f>CLEAN(IF([1]BD!AS$6="P",[1]BD!AS14,""))</f>
@@ -15503,11 +15361,11 @@
       </c>
       <c r="BF8" t="str">
         <f>CLEAN(IF([1]BD!BF$6="P",[1]BD!BF14,""))</f>
-        <v>-</v>
+        <v>43304</v>
       </c>
       <c r="BG8" t="str">
         <f>CLEAN(IF([1]BD!BG$6="P",[1]BD!BG14,""))</f>
-        <v>-</v>
+        <v>DDE-SPURB</v>
       </c>
       <c r="BH8" t="str">
         <f>CLEAN(IF([1]BD!BH$6="P",[1]BD!BH14,""))</f>
@@ -15519,7 +15377,7 @@
       </c>
       <c r="BJ8" t="str">
         <f>CLEAN(IF([1]BD!BJ$6="P",[1]BD!BJ14,""))</f>
-        <v>-</v>
+        <v>SMDP (SPP)</v>
       </c>
       <c r="BK8" t="str">
         <f>CLEAN(IF([1]BD!BK$6="P",[1]BD!BK14,""))</f>
@@ -15547,11 +15405,11 @@
       </c>
       <c r="BQ8" t="str">
         <f>CLEAN(IF([1]BD!BQ$6="P",[1]BD!BQ14,""))</f>
-        <v>-</v>
+        <v>43307</v>
       </c>
       <c r="BR8" t="str">
         <f>CLEAN(IF([1]BD!BR$6="P",[1]BD!BR14,""))</f>
-        <v>-</v>
+        <v>43311</v>
       </c>
       <c r="BS8" t="str">
         <f>CLEAN(IF([1]BD!BS$6="P",[1]BD!BS14,""))</f>
@@ -15595,11 +15453,11 @@
       </c>
       <c r="CC8" t="str">
         <f>CLEAN(IF([1]BD!CC$6="P",[1]BD!CC14,""))</f>
-        <v>-</v>
+        <v>Aberta</v>
       </c>
       <c r="CD8" t="str">
         <f>CLEAN(IF([1]BD!CD$6="P",[1]BD!CD14,""))</f>
-        <v>-</v>
+        <v>43311</v>
       </c>
       <c r="CE8" t="str">
         <f>CLEAN(IF([1]BD!CE$6="P",[1]BD!CE14,""))</f>
@@ -15613,13 +15471,11 @@
         <f>CLEAN(IF([1]BD!CG$6="P",[1]BD!CG14,""))</f>
         <v/>
       </c>
-      <c r="CH8" t="str">
-        <f>CLEAN(IF([1]BD!CH$6="P",[1]BD!CH14,""))</f>
-        <v>-</v>
-      </c>
-      <c r="CI8" t="str">
-        <f>CLEAN(IF([1]BD!CI$6="P",[1]BD!CI14,""))</f>
-        <v>-</v>
+      <c r="CH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="CJ8" t="str">
         <f>CLEAN(IF([1]BD!CJ$6="P",[1]BD!CJ14,""))</f>
@@ -15887,7 +15743,7 @@
       </c>
       <c r="EX8" t="str">
         <f>CLEAN(IF([1]BD!EX$6="P",[1]BD!EX14,""))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:157">
@@ -23310,286 +23166,6 @@
       <c r="DU21" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C20 C17:C18 B17">
-    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C17:C18 B17">
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C18">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C18">
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="71" priority="72" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20 C17:C18 C20">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20 C17:C18 C20">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C20">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C20">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B20 C18 C20">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B20 C18 C20">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C17:C18 B17">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C17:C18 B17">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C18">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C18">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20 C17:C18 C20">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20 C17:C18 C20">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C20">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C20">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B20 C18 C20">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B20 C18 C20">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="PIU">
-      <formula>NOT(ISERROR(SEARCH("PIU",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Projeto">
-      <formula>NOT(ISERROR(SEARCH("Projeto",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C20 C17:C18 B17">
     <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="PIU">
       <formula>NOT(ISERROR(SEARCH("PIU",B17)))</formula>
@@ -23731,5 +23307,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>